--- a/DB/resultados_relacionaveis.xlsx
+++ b/DB/resultados_relacionaveis.xlsx
@@ -453,7 +453,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>{'correlação_pearson': np.float64(0.01), 'p_valor': np.float64(0.28)}</t>
+          <t>{'correlação_pearson': np.float64(-0.01), 'p_valor': np.float64(0.62)}</t>
         </is>
       </c>
     </row>
@@ -465,7 +465,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>{'qui2': np.float64(2.38), 'p_valor': np.float64(0.12), 'graus_liberdade': 1, 'tabela': {1.0: {1.0: 2572, 2.0: 2416}, 2.0: {1.0: 2506, 2.0: 2506}}}</t>
+          <t>{'qui2': np.float64(0.11), 'p_valor': np.float64(0.74), 'graus_liberdade': 1, 'tabela': {1.0: {1.0: 1534, 2.0: 1558}, 2.0: {1.0: 1456, 2.0: 1452}}}</t>
         </is>
       </c>
     </row>
@@ -477,7 +477,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>{'qui2': np.float64(0.01), 'p_valor': np.float64(0.94), 'graus_liberdade': 1, 'tabela': {1.0: {1.0: 2485, 2.0: 2535}, 2.0: {1.0: 2470, 2.0: 2510}}}</t>
+          <t>{'qui2': np.float64(0.56), 'p_valor': np.float64(0.46), 'graus_liberdade': 1, 'tabela': {1.0: {1.0: 1472, 2.0: 1536}, 2.0: {1.0: 1494, 2.0: 1498}}}</t>
         </is>
       </c>
     </row>
@@ -489,7 +489,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>{1.0: 5.56, 2.0: 5.52, 3.0: 5.53}</t>
+          <t>{1.0: 5.53, 2.0: 5.47, 3.0: 5.58}</t>
         </is>
       </c>
     </row>
@@ -501,7 +501,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>{'media_grupo_1': np.float64(5.52), 'media_grupo_2': np.float64(5.55), 't_stat': np.float64(-0.39), 'p_valor': np.float64(0.7)}</t>
+          <t>{'media_grupo_1': np.int64(5), 'media_grupo_2': np.int64(5), 't_stat': np.int64(0), 'p_valor': np.int64(0)}</t>
         </is>
       </c>
     </row>
@@ -513,7 +513,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>{0: {'Q5': 1.5, 'Q6': 1.49, 'Q7': 4.0, 'Q8': 2.0, 'Q9': 13.85, 'Q10': 1.5, 'Q11': 4.03, 'Q12': 2.03, 'Q13': 5.56, 'Q14': 1.5, 'Q15': 1.5, 'Q16': 1.5, 'Q17': 1.5, 'Q18': 2.0, 'Q19': 1.5, 'Q20': 1.5, 'Q21': 1.5, 'Q22': 1.52, 'Q23': 1.5, 'Q24': 1.5, 'Q25': 1.5, 'Q26': 2.0}, 1: {'Q5': 1.51, 'Q6': 1.49, 'Q7': 4.01, 'Q8': 2.0, 'Q9': 13.98, 'Q10': 1.49, 'Q11': 4.05, 'Q12': 1.97, 'Q13': 5.46, 'Q14': 1.51, 'Q15': 1.48, 'Q16': 1.5, 'Q17': 1.5, 'Q18': 1.0, 'Q19': 1.51, 'Q20': 1.5, 'Q21': 1.48, 'Q22': 1.51, 'Q23': 1.5, 'Q24': 1.52, 'Q25': 2.0, 'Q26': 1.99}, 2: {'Q5': 1.5, 'Q6': 1.49, 'Q7': 3.9, 'Q8': 2.01, 'Q9': 13.91, 'Q10': 1.5, 'Q11': 3.98, 'Q12': 1.98, 'Q13': 5.57, 'Q14': 1.5, 'Q15': 1.51, 'Q16': 1.49, 'Q17': 1.5, 'Q18': 1.0, 'Q19': 1.51, 'Q20': 1.51, 'Q21': 1.5, 'Q22': 1.49, 'Q23': 1.51, 'Q24': 1.51, 'Q25': 1.0, 'Q26': 2.01}}</t>
+          <t>{0: {'Q5': 1.52, 'Q6': 1.58, 'Q7': 4.02, 'Q8': 1.98, 'Q9': 12.87, 'Q10': 1.48, 'Q11': 3.45, 'Q12': 2.06, 'Q13': 5.6, 'Q14': 1.43, 'Q15': 1.78, 'Q16': 1.88, 'Q17': 1.59, 'Q18': 1.34, 'Q19': 1.51, 'Q20': 1.46, 'Q21': 1.62, 'Q22': 1.8, 'Q23': 1.45, 'Q24': 1.51, 'Q25': 1.28, 'Q26': 1.91}, 1: {'Q5': 1.46, 'Q6': 2.0, 'Q7': 4.13, 'Q8': 2.04, 'Q9': 14.28, 'Q10': 1.52, 'Q11': 4.21, 'Q12': 1.98, 'Q13': 5.58, 'Q14': 1.5, 'Q15': 1.38, 'Q16': 1.35, 'Q17': 1.47, 'Q18': 1.55, 'Q19': 1.49, 'Q20': 1.55, 'Q21': 1.47, 'Q22': 1.38, 'Q23': 1.52, 'Q24': 1.5, 'Q25': 1.57, 'Q26': 2.01}, 2: {'Q5': 1.5, 'Q6': 1.0, 'Q7': 4.07, 'Q8': 1.99, 'Q9': 14.69, 'Q10': 1.52, 'Q11': 3.98, 'Q12': 1.96, 'Q13': 5.43, 'Q14': 1.5, 'Q15': 1.42, 'Q16': 1.39, 'Q17': 1.46, 'Q18': 1.53, 'Q19': 1.52, 'Q20': 1.5, 'Q21': 1.46, 'Q22': 1.41, 'Q23': 1.53, 'Q24': 1.51, 'Q25': 1.57, 'Q26': 2.01}}</t>
         </is>
       </c>
     </row>

--- a/DB/resultados_relacionaveis.xlsx
+++ b/DB/resultados_relacionaveis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,7 +453,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>{'correlação_pearson': np.float64(-0.01), 'p_valor': np.float64(0.62)}</t>
+          <t>{'correlação_pearson': np.float64(0.0), 'p_valor': np.float64(0.93)}</t>
         </is>
       </c>
     </row>
@@ -465,7 +465,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>{'qui2': np.float64(0.11), 'p_valor': np.float64(0.74), 'graus_liberdade': 1, 'tabela': {1.0: {1.0: 1534, 2.0: 1558}, 2.0: {1.0: 1456, 2.0: 1452}}}</t>
+          <t>{'qui2': np.float64(0.1), 'p_valor': np.float64(0.76), 'graus_liberdade': 1, 'tabela': {1.0: {1.0: 1474, 2.0: 1526}, 2.0: {1.0: 1487, 2.0: 1513}}}</t>
         </is>
       </c>
     </row>
@@ -477,7 +477,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>{'qui2': np.float64(0.56), 'p_valor': np.float64(0.46), 'graus_liberdade': 1, 'tabela': {1.0: {1.0: 1472, 2.0: 1536}, 2.0: {1.0: 1494, 2.0: 1498}}}</t>
+          <t>{'qui2': np.float64(1.93), 'p_valor': np.float64(0.16), 'graus_liberdade': 1, 'tabela': {1.0: {1.0: 1465, 2.0: 1504}, 2.0: {1.0: 1551, 2.0: 1480}}}</t>
         </is>
       </c>
     </row>
@@ -489,31 +489,19 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>{1.0: 5.53, 2.0: 5.47, 3.0: 5.58}</t>
+          <t>{1.0: 5.54, 2.0: 5.49, 3.0: 5.39}</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>teste_t_Q13_por_Q2</t>
+          <t>perfil_clusters</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>{'media_grupo_1': np.int64(5), 'media_grupo_2': np.int64(5), 't_stat': np.int64(0), 'p_valor': np.int64(0)}</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>perfil_clusters</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>{0: {'Q5': 1.52, 'Q6': 1.58, 'Q7': 4.02, 'Q8': 1.98, 'Q9': 12.87, 'Q10': 1.48, 'Q11': 3.45, 'Q12': 2.06, 'Q13': 5.6, 'Q14': 1.43, 'Q15': 1.78, 'Q16': 1.88, 'Q17': 1.59, 'Q18': 1.34, 'Q19': 1.51, 'Q20': 1.46, 'Q21': 1.62, 'Q22': 1.8, 'Q23': 1.45, 'Q24': 1.51, 'Q25': 1.28, 'Q26': 1.91}, 1: {'Q5': 1.46, 'Q6': 2.0, 'Q7': 4.13, 'Q8': 2.04, 'Q9': 14.28, 'Q10': 1.52, 'Q11': 4.21, 'Q12': 1.98, 'Q13': 5.58, 'Q14': 1.5, 'Q15': 1.38, 'Q16': 1.35, 'Q17': 1.47, 'Q18': 1.55, 'Q19': 1.49, 'Q20': 1.55, 'Q21': 1.47, 'Q22': 1.38, 'Q23': 1.52, 'Q24': 1.5, 'Q25': 1.57, 'Q26': 2.01}, 2: {'Q5': 1.5, 'Q6': 1.0, 'Q7': 4.07, 'Q8': 1.99, 'Q9': 14.69, 'Q10': 1.52, 'Q11': 3.98, 'Q12': 1.96, 'Q13': 5.43, 'Q14': 1.5, 'Q15': 1.42, 'Q16': 1.39, 'Q17': 1.46, 'Q18': 1.53, 'Q19': 1.52, 'Q20': 1.5, 'Q21': 1.46, 'Q22': 1.41, 'Q23': 1.53, 'Q24': 1.51, 'Q25': 1.57, 'Q26': 2.01}}</t>
+          <t>{0: {'Q5': 1.55, 'Q6': 1.47, 'Q7': 3.68, 'Q8': 1.99, 'Q9': 13.3, 'Q10': 1.48, 'Q11': 4.12, 'Q12': 2.0, 'Q13': 5.32, 'Q14': 1.38, 'Q15': 1.53, 'Q16': 1.51, 'Q17': 1.5, 'Q18': 1.51, 'Q19': 1.0, 'Q20': 1.51, 'Q21': 1.5, 'Q22': 1.51, 'Q23': 1.49, 'Q24': 1.48, 'Q25': 1.51, 'Q26': 2.67}, 1: {'Q5': 1.51, 'Q6': 1.5, 'Q7': 4.03, 'Q8': 1.99, 'Q9': 13.8, 'Q10': 1.5, 'Q11': 3.94, 'Q12': 1.98, 'Q13': 5.51, 'Q14': 1.5, 'Q15': 1.52, 'Q16': 1.5, 'Q17': 1.5, 'Q18': 1.5, 'Q19': 2.0, 'Q20': 1.5, 'Q21': 1.49, 'Q22': 1.49, 'Q23': 1.5, 'Q24': 1.5, 'Q25': 1.5, 'Q26': 1.99}, 2: {'Q5': 1.48, 'Q6': 1.55, 'Q7': 4.21, 'Q8': 1.96, 'Q9': 15.08, 'Q10': 1.52, 'Q11': 3.82, 'Q12': 1.99, 'Q13': 5.55, 'Q14': 1.62, 'Q15': 1.42, 'Q16': 1.51, 'Q17': 1.49, 'Q18': 1.46, 'Q19': 1.0, 'Q20': 1.48, 'Q21': 1.51, 'Q22': 1.48, 'Q23': 1.51, 'Q24': 1.51, 'Q25': 1.49, 'Q26': 1.34}}</t>
         </is>
       </c>
     </row>

--- a/DB/resultados_relacionaveis.xlsx
+++ b/DB/resultados_relacionaveis.xlsx
@@ -453,7 +453,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>{'correlação_pearson': np.float64(0.0), 'p_valor': np.float64(0.93)}</t>
+          <t>{'correlação_pearson': np.float64(-0.02), 'p_valor': np.float64(0.24)}</t>
         </is>
       </c>
     </row>
@@ -465,7 +465,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>{'qui2': np.float64(0.1), 'p_valor': np.float64(0.76), 'graus_liberdade': 1, 'tabela': {1.0: {1.0: 1474, 2.0: 1526}, 2.0: {1.0: 1487, 2.0: 1513}}}</t>
+          <t>{'qui2': np.float64(0.55), 'p_valor': np.float64(0.46), 'graus_liberdade': 1, 'tabela': {1.0: {1.0: 1500, 2.0: 1437}, 2.0: {1.0: 1534, 2.0: 1529}}}</t>
         </is>
       </c>
     </row>
@@ -477,7 +477,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>{'qui2': np.float64(1.93), 'p_valor': np.float64(0.16), 'graus_liberdade': 1, 'tabela': {1.0: {1.0: 1465, 2.0: 1504}, 2.0: {1.0: 1551, 2.0: 1480}}}</t>
+          <t>{'qui2': np.float64(3.01), 'p_valor': np.float64(0.08), 'graus_liberdade': 1, 'tabela': {1.0: {1.0: 1502, 2.0: 1504}, 2.0: {1.0: 1428, 2.0: 1566}}}</t>
         </is>
       </c>
     </row>
@@ -489,7 +489,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>{1.0: 5.54, 2.0: 5.49, 3.0: 5.39}</t>
+          <t>{1.0: 5.48, 2.0: 5.59, 3.0: 5.5}</t>
         </is>
       </c>
     </row>
@@ -501,7 +501,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>{0: {'Q5': 1.55, 'Q6': 1.47, 'Q7': 3.68, 'Q8': 1.99, 'Q9': 13.3, 'Q10': 1.48, 'Q11': 4.12, 'Q12': 2.0, 'Q13': 5.32, 'Q14': 1.38, 'Q15': 1.53, 'Q16': 1.51, 'Q17': 1.5, 'Q18': 1.51, 'Q19': 1.0, 'Q20': 1.51, 'Q21': 1.5, 'Q22': 1.51, 'Q23': 1.49, 'Q24': 1.48, 'Q25': 1.51, 'Q26': 2.67}, 1: {'Q5': 1.51, 'Q6': 1.5, 'Q7': 4.03, 'Q8': 1.99, 'Q9': 13.8, 'Q10': 1.5, 'Q11': 3.94, 'Q12': 1.98, 'Q13': 5.51, 'Q14': 1.5, 'Q15': 1.52, 'Q16': 1.5, 'Q17': 1.5, 'Q18': 1.5, 'Q19': 2.0, 'Q20': 1.5, 'Q21': 1.49, 'Q22': 1.49, 'Q23': 1.5, 'Q24': 1.5, 'Q25': 1.5, 'Q26': 1.99}, 2: {'Q5': 1.48, 'Q6': 1.55, 'Q7': 4.21, 'Q8': 1.96, 'Q9': 15.08, 'Q10': 1.52, 'Q11': 3.82, 'Q12': 1.99, 'Q13': 5.55, 'Q14': 1.62, 'Q15': 1.42, 'Q16': 1.51, 'Q17': 1.49, 'Q18': 1.46, 'Q19': 1.0, 'Q20': 1.48, 'Q21': 1.51, 'Q22': 1.48, 'Q23': 1.51, 'Q24': 1.51, 'Q25': 1.49, 'Q26': 1.34}}</t>
+          <t>{0: {'Q5': 1.0, 'Q6': 1.51, 'Q7': 4.0, 'Q8': 1.99, 'Q9': 14.06, 'Q10': 1.51, 'Q11': 3.92, 'Q12': 2.01, 'Q13': 5.54, 'Q14': 1.52, 'Q15': 1.5, 'Q16': 1.5, 'Q17': 1.52, 'Q18': 1.48, 'Q19': 1.49, 'Q20': 1.51, 'Q21': 1.49, 'Q22': 1.51, 'Q23': 1.5, 'Q24': 1.52, 'Q25': 1.52, 'Q26': 2.01}, 1: {'Q5': 2.0, 'Q6': 1.45, 'Q7': 4.31, 'Q8': 2.01, 'Q9': 13.27, 'Q10': 1.49, 'Q11': 3.93, 'Q12': 1.31, 'Q13': 5.29, 'Q14': 1.54, 'Q15': 1.51, 'Q16': 1.44, 'Q17': 1.53, 'Q18': 1.49, 'Q19': 1.41, 'Q20': 1.5, 'Q21': 1.51, 'Q22': 1.55, 'Q23': 1.47, 'Q24': 1.46, 'Q25': 1.47, 'Q26': 2.02}, 2: {'Q5': 2.0, 'Q6': 1.52, 'Q7': 3.73, 'Q8': 1.99, 'Q9': 14.99, 'Q10': 1.49, 'Q11': 4.07, 'Q12': 2.64, 'Q13': 5.73, 'Q14': 1.47, 'Q15': 1.52, 'Q16': 1.55, 'Q17': 1.49, 'Q18': 1.49, 'Q19': 1.62, 'Q20': 1.5, 'Q21': 1.51, 'Q22': 1.46, 'Q23': 1.56, 'Q24': 1.56, 'Q25': 1.54, 'Q26': 1.99}}</t>
         </is>
       </c>
     </row>

--- a/DB/resultados_relacionaveis.xlsx
+++ b/DB/resultados_relacionaveis.xlsx
@@ -453,7 +453,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>{'correlação_pearson': np.float64(-0.02), 'p_valor': np.float64(0.24)}</t>
+          <t>{'correlação_pearson': np.float64(-0.0), 'p_valor': np.float64(0.97)}</t>
         </is>
       </c>
     </row>
@@ -465,7 +465,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>{'qui2': np.float64(0.55), 'p_valor': np.float64(0.46), 'graus_liberdade': 1, 'tabela': {1.0: {1.0: 1500, 2.0: 1437}, 2.0: {1.0: 1534, 2.0: 1529}}}</t>
+          <t>{'qui2': np.float64(0.18), 'p_valor': np.float64(0.67), 'graus_liberdade': 1, 'tabela': {1.0: {1.0: 52, 2.0: 63}, 2.0: {1.0: 50, 2.0: 52}}}</t>
         </is>
       </c>
     </row>
@@ -477,7 +477,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>{'qui2': np.float64(3.01), 'p_valor': np.float64(0.08), 'graus_liberdade': 1, 'tabela': {1.0: {1.0: 1502, 2.0: 1504}, 2.0: {1.0: 1428, 2.0: 1566}}}</t>
+          <t>{'qui2': np.float64(0.26), 'p_valor': np.float64(0.61), 'graus_liberdade': 1, 'tabela': {1.0: {1.0: 53, 2.0: 58}, 2.0: {1.0: 46, 2.0: 60}}}</t>
         </is>
       </c>
     </row>
@@ -489,7 +489,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>{1.0: 5.48, 2.0: 5.59, 3.0: 5.5}</t>
+          <t>{1.0: 5.47, 2.0: 5.75, 3.0: 5.23}</t>
         </is>
       </c>
     </row>
@@ -501,7 +501,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>{0: {'Q5': 1.0, 'Q6': 1.51, 'Q7': 4.0, 'Q8': 1.99, 'Q9': 14.06, 'Q10': 1.51, 'Q11': 3.92, 'Q12': 2.01, 'Q13': 5.54, 'Q14': 1.52, 'Q15': 1.5, 'Q16': 1.5, 'Q17': 1.52, 'Q18': 1.48, 'Q19': 1.49, 'Q20': 1.51, 'Q21': 1.49, 'Q22': 1.51, 'Q23': 1.5, 'Q24': 1.52, 'Q25': 1.52, 'Q26': 2.01}, 1: {'Q5': 2.0, 'Q6': 1.45, 'Q7': 4.31, 'Q8': 2.01, 'Q9': 13.27, 'Q10': 1.49, 'Q11': 3.93, 'Q12': 1.31, 'Q13': 5.29, 'Q14': 1.54, 'Q15': 1.51, 'Q16': 1.44, 'Q17': 1.53, 'Q18': 1.49, 'Q19': 1.41, 'Q20': 1.5, 'Q21': 1.51, 'Q22': 1.55, 'Q23': 1.47, 'Q24': 1.46, 'Q25': 1.47, 'Q26': 2.02}, 2: {'Q5': 2.0, 'Q6': 1.52, 'Q7': 3.73, 'Q8': 1.99, 'Q9': 14.99, 'Q10': 1.49, 'Q11': 4.07, 'Q12': 2.64, 'Q13': 5.73, 'Q14': 1.47, 'Q15': 1.52, 'Q16': 1.55, 'Q17': 1.49, 'Q18': 1.49, 'Q19': 1.62, 'Q20': 1.5, 'Q21': 1.51, 'Q22': 1.46, 'Q23': 1.56, 'Q24': 1.56, 'Q25': 1.54, 'Q26': 1.99}}</t>
+          <t>{0: {'Q5': 1.06, 'Q6': 1.64, 'Q7': 4.39, 'Q8': 2.06, 'Q9': 13.53, 'Q10': 1.44, 'Q11': 3.61, 'Q12': 2.12, 'Q13': 5.59, 'Q14': 1.11, 'Q15': 1.41, 'Q16': 1.59, 'Q17': 1.45, 'Q18': 1.58, 'Q19': 1.59, 'Q20': 1.62, 'Q21': 1.56, 'Q22': 1.68, 'Q23': 1.36, 'Q24': 1.59, 'Q25': 1.44, 'Q26': 2.03}, 1: {'Q5': 1.8, 'Q6': 1.59, 'Q7': 4.04, 'Q8': 2.07, 'Q9': 12.77, 'Q10': 1.6, 'Q11': 4.83, 'Q12': 1.81, 'Q13': 6.05, 'Q14': 1.65, 'Q15': 1.29, 'Q16': 1.43, 'Q17': 1.69, 'Q18': 1.3, 'Q19': 1.46, 'Q20': 1.65, 'Q21': 1.53, 'Q22': 1.66, 'Q23': 1.61, 'Q24': 1.35, 'Q25': 1.48, 'Q26': 2.07}, 2: {'Q5': 1.65, 'Q6': 1.35, 'Q7': 2.81, 'Q8': 2.0, 'Q9': 15.84, 'Q10': 1.62, 'Q11': 3.54, 'Q12': 2.13, 'Q13': 4.69, 'Q14': 1.6, 'Q15': 1.81, 'Q16': 1.46, 'Q17': 1.41, 'Q18': 1.49, 'Q19': 1.41, 'Q20': 1.18, 'Q21': 1.47, 'Q22': 1.32, 'Q23': 1.41, 'Q24': 1.74, 'Q25': 1.47, 'Q26': 1.82}}</t>
         </is>
       </c>
     </row>

--- a/DB/resultados_relacionaveis.xlsx
+++ b/DB/resultados_relacionaveis.xlsx
@@ -453,7 +453,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>{'correlação_pearson': np.float64(-0.0), 'p_valor': np.float64(0.97)}</t>
+          <t>{'correlação_pearson': np.float64(-0.1), 'p_valor': np.float64(0.12)}</t>
         </is>
       </c>
     </row>
@@ -465,7 +465,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>{'qui2': np.float64(0.18), 'p_valor': np.float64(0.67), 'graus_liberdade': 1, 'tabela': {1.0: {1.0: 52, 2.0: 63}, 2.0: {1.0: 50, 2.0: 52}}}</t>
+          <t>{'qui2': np.float64(0.0), 'p_valor': np.float64(1.0), 'graus_liberdade': 1, 'tabela': {1.0: {1.0: 48, 2.0: 54}, 2.0: {1.0: 55, 2.0: 60}}}</t>
         </is>
       </c>
     </row>
@@ -477,7 +477,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>{'qui2': np.float64(0.26), 'p_valor': np.float64(0.61), 'graus_liberdade': 1, 'tabela': {1.0: {1.0: 53, 2.0: 58}, 2.0: {1.0: 46, 2.0: 60}}}</t>
+          <t>{'qui2': np.float64(1.39), 'p_valor': np.float64(0.24), 'graus_liberdade': 1, 'tabela': {1.0: {1.0: 60, 2.0: 54}, 2.0: {1.0: 45, 2.0: 58}}}</t>
         </is>
       </c>
     </row>
@@ -489,7 +489,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>{1.0: 5.47, 2.0: 5.75, 3.0: 5.23}</t>
+          <t>{1.0: 6.21, 2.0: 5.2, 3.0: 5.62}</t>
         </is>
       </c>
     </row>
@@ -501,7 +501,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>{0: {'Q5': 1.06, 'Q6': 1.64, 'Q7': 4.39, 'Q8': 2.06, 'Q9': 13.53, 'Q10': 1.44, 'Q11': 3.61, 'Q12': 2.12, 'Q13': 5.59, 'Q14': 1.11, 'Q15': 1.41, 'Q16': 1.59, 'Q17': 1.45, 'Q18': 1.58, 'Q19': 1.59, 'Q20': 1.62, 'Q21': 1.56, 'Q22': 1.68, 'Q23': 1.36, 'Q24': 1.59, 'Q25': 1.44, 'Q26': 2.03}, 1: {'Q5': 1.8, 'Q6': 1.59, 'Q7': 4.04, 'Q8': 2.07, 'Q9': 12.77, 'Q10': 1.6, 'Q11': 4.83, 'Q12': 1.81, 'Q13': 6.05, 'Q14': 1.65, 'Q15': 1.29, 'Q16': 1.43, 'Q17': 1.69, 'Q18': 1.3, 'Q19': 1.46, 'Q20': 1.65, 'Q21': 1.53, 'Q22': 1.66, 'Q23': 1.61, 'Q24': 1.35, 'Q25': 1.48, 'Q26': 2.07}, 2: {'Q5': 1.65, 'Q6': 1.35, 'Q7': 2.81, 'Q8': 2.0, 'Q9': 15.84, 'Q10': 1.62, 'Q11': 3.54, 'Q12': 2.13, 'Q13': 4.69, 'Q14': 1.6, 'Q15': 1.81, 'Q16': 1.46, 'Q17': 1.41, 'Q18': 1.49, 'Q19': 1.41, 'Q20': 1.18, 'Q21': 1.47, 'Q22': 1.32, 'Q23': 1.41, 'Q24': 1.74, 'Q25': 1.47, 'Q26': 1.82}}</t>
+          <t>{0: {'Q5': 1.54, 'Q6': 1.38, 'Q7': 4.32, 'Q8': 2.65, 'Q9': 13.19, 'Q10': 1.62, 'Q11': 2.82, 'Q12': 2.13, 'Q13': 4.81, 'Q14': 1.76, 'Q15': 1.34, 'Q16': 1.46, 'Q17': 1.57, 'Q18': 1.51, 'Q19': 1.76, 'Q20': 1.38, 'Q21': 1.56, 'Q22': 1.69, 'Q23': 1.68, 'Q24': 1.43, 'Q25': 1.6, 'Q26': 1.65}, 1: {'Q5': 1.46, 'Q6': 1.45, 'Q7': 4.46, 'Q8': 1.66, 'Q9': 12.71, 'Q10': 1.32, 'Q11': 4.21, 'Q12': 1.64, 'Q13': 5.99, 'Q14': 1.44, 'Q15': 1.28, 'Q16': 1.21, 'Q17': 1.48, 'Q18': 1.41, 'Q19': 1.32, 'Q20': 1.66, 'Q21': 1.38, 'Q22': 1.48, 'Q23': 1.53, 'Q24': 1.59, 'Q25': 1.4, 'Q26': 2.16}, 2: {'Q5': 1.56, 'Q6': 1.78, 'Q7': 4.16, 'Q8': 1.92, 'Q9': 13.97, 'Q10': 1.8, 'Q11': 5.19, 'Q12': 2.23, 'Q13': 6.09, 'Q14': 1.41, 'Q15': 1.73, 'Q16': 1.84, 'Q17': 1.39, 'Q18': 1.45, 'Q19': 1.58, 'Q20': 1.67, 'Q21': 1.45, 'Q22': 1.42, 'Q23': 1.38, 'Q24': 1.52, 'Q25': 1.61, 'Q26': 2.2}}</t>
         </is>
       </c>
     </row>

--- a/DB/resultados_relacionaveis.xlsx
+++ b/DB/resultados_relacionaveis.xlsx
@@ -453,7 +453,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>{'correlação_pearson': np.float64(-0.1), 'p_valor': np.float64(0.12)}</t>
+          <t>{'correlação_pearson': np.float64(-0.05), 'p_valor': np.float64(0.6)}</t>
         </is>
       </c>
     </row>
@@ -465,7 +465,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>{'qui2': np.float64(0.0), 'p_valor': np.float64(1.0), 'graus_liberdade': 1, 'tabela': {1.0: {1.0: 48, 2.0: 54}, 2.0: {1.0: 55, 2.0: 60}}}</t>
+          <t>{'qui2': np.float64(4.21), 'p_valor': np.float64(0.04), 'graus_liberdade': 1, 'tabela': {1.0: {1.0: 23, 2.0: 32}, 2.0: {1.0: 29, 2.0: 16}}}</t>
         </is>
       </c>
     </row>
@@ -477,7 +477,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>{'qui2': np.float64(1.39), 'p_valor': np.float64(0.24), 'graus_liberdade': 1, 'tabela': {1.0: {1.0: 60, 2.0: 54}, 2.0: {1.0: 45, 2.0: 58}}}</t>
+          <t>{'qui2': np.float64(0.0), 'p_valor': np.float64(1.0), 'graus_liberdade': 1, 'tabela': {1.0: {1.0: 26, 2.0: 28}, 2.0: {1.0: 23, 2.0: 23}}}</t>
         </is>
       </c>
     </row>
@@ -489,7 +489,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>{1.0: 6.21, 2.0: 5.2, 3.0: 5.62}</t>
+          <t>{1.0: 2.97, 2.0: 3.21, 3.0: 2.95}</t>
         </is>
       </c>
     </row>
@@ -501,7 +501,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>{0: {'Q5': 1.54, 'Q6': 1.38, 'Q7': 4.32, 'Q8': 2.65, 'Q9': 13.19, 'Q10': 1.62, 'Q11': 2.82, 'Q12': 2.13, 'Q13': 4.81, 'Q14': 1.76, 'Q15': 1.34, 'Q16': 1.46, 'Q17': 1.57, 'Q18': 1.51, 'Q19': 1.76, 'Q20': 1.38, 'Q21': 1.56, 'Q22': 1.69, 'Q23': 1.68, 'Q24': 1.43, 'Q25': 1.6, 'Q26': 1.65}, 1: {'Q5': 1.46, 'Q6': 1.45, 'Q7': 4.46, 'Q8': 1.66, 'Q9': 12.71, 'Q10': 1.32, 'Q11': 4.21, 'Q12': 1.64, 'Q13': 5.99, 'Q14': 1.44, 'Q15': 1.28, 'Q16': 1.21, 'Q17': 1.48, 'Q18': 1.41, 'Q19': 1.32, 'Q20': 1.66, 'Q21': 1.38, 'Q22': 1.48, 'Q23': 1.53, 'Q24': 1.59, 'Q25': 1.4, 'Q26': 2.16}, 2: {'Q5': 1.56, 'Q6': 1.78, 'Q7': 4.16, 'Q8': 1.92, 'Q9': 13.97, 'Q10': 1.8, 'Q11': 5.19, 'Q12': 2.23, 'Q13': 6.09, 'Q14': 1.41, 'Q15': 1.73, 'Q16': 1.84, 'Q17': 1.39, 'Q18': 1.45, 'Q19': 1.58, 'Q20': 1.67, 'Q21': 1.45, 'Q22': 1.42, 'Q23': 1.38, 'Q24': 1.52, 'Q25': 1.61, 'Q26': 2.2}}</t>
+          <t>{0: {'Q5': 1.39, 'Q6': 1.47, 'Q7': 3.53, 'Q8': 1.61, 'Q9': 2.11, 'Q10': 1.44, 'Q11': 3.11, 'Q12': 1.69, 'Q13': 3.53, 'Q14': 1.5, 'Q15': 1.42, 'Q16': 1.14, 'Q17': 1.5, 'Q18': 1.67, 'Q19': 1.36, 'Q20': 1.64, 'Q21': 1.44, 'Q22': 1.58, 'Q23': 1.53, 'Q24': 1.42, 'Q25': 1.47, 'Q26': 1.89, 'Q27': 2.36}, 1: {'Q5': 1.53, 'Q6': 1.78, 'Q7': 2.64, 'Q8': 2.17, 'Q9': 2.58, 'Q10': 1.67, 'Q11': 2.78, 'Q12': 2.22, 'Q13': 2.56, 'Q14': 1.25, 'Q15': 1.83, 'Q16': 1.56, 'Q17': 1.5, 'Q18': 1.56, 'Q19': 1.39, 'Q20': 1.42, 'Q21': 1.33, 'Q22': 1.36, 'Q23': 1.5, 'Q24': 1.53, 'Q25': 1.67, 'Q26': 1.56, 'Q27': 1.81}, 2: {'Q5': 1.36, 'Q6': 1.11, 'Q7': 3.07, 'Q8': 2.0, 'Q9': 3.07, 'Q10': 1.43, 'Q11': 2.86, 'Q12': 2.29, 'Q13': 3.0, 'Q14': 1.64, 'Q15': 1.43, 'Q16': 1.75, 'Q17': 1.54, 'Q18': 1.5, 'Q19': 1.57, 'Q20': 1.54, 'Q21': 1.93, 'Q22': 1.5, 'Q23': 1.54, 'Q24': 1.61, 'Q25': 1.57, 'Q26': 2.32, 'Q27': 1.79}}</t>
         </is>
       </c>
     </row>
